--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Open Nursing Core Braden Scale Assessment</t>
   </si>
   <si>
-    <t>null#nursing</t>
+    <t>Observation Category Codes#nursing</t>
   </si>
   <si>
     <t/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>onc-skintone-observation</t>
+  </si>
+  <si>
+    <t>ONC Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>LOINC#66472-2</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -582,6 +594,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="55">
   <si>
     <t>Profile</t>
   </si>
@@ -86,6 +86,81 @@
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
+    <t>onc-housing-status</t>
+  </si>
+  <si>
+    <t>ONC Housing Status Assessment</t>
+  </si>
+  <si>
+    <t>LOINC#71802-3</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>onc-morse-fall-scale</t>
+  </si>
+  <si>
+    <t>ONC Morse Fall Scale Assessment</t>
+  </si>
+  <si>
+    <t>LOINC#59460-6</t>
+  </si>
+  <si>
+    <t>LOINC#59461-4</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#59462-2</t>
+  </si>
+  <si>
+    <t>LOINC#59463-0</t>
+  </si>
+  <si>
+    <t>LOINC#59464-8</t>
+  </si>
+  <si>
+    <t>LOINC#59465-5</t>
+  </si>
+  <si>
+    <t>LOINC#59466-3</t>
+  </si>
+  <si>
+    <t>onc-news2-assessment</t>
+  </si>
+  <si>
+    <t>ONC NEWS2 Assessment</t>
+  </si>
+  <si>
+    <t>LOINC#86585-7</t>
+  </si>
+  <si>
+    <t>LOINC#9279-1</t>
+  </si>
+  <si>
+    <t>LOINC#2708-6</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>LOINC#11454-5</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>LOINC#72274-4</t>
+  </si>
+  <si>
     <t>onc-nursing-assessment</t>
   </si>
   <si>
@@ -102,9 +177,6 @@
   </si>
   <si>
     <t>LOINC#66472-2</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
   </si>
 </sst>
 </file>
@@ -238,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -573,16 +645,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -596,19 +668,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -617,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -626,6 +698,566 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="106">
   <si>
     <t>Profile</t>
   </si>
@@ -47,49 +47,115 @@
     <t>Method</t>
   </si>
   <si>
+    <t>onc-acvpu</t>
+  </si>
+  <si>
+    <t>ACVPU Consciousness Level</t>
+  </si>
+  <si>
+    <t>null#survey</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SNOMED CT#1104441000000107</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>onc-barthel-index</t>
+  </si>
+  <si>
+    <t>Barthel Index</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#barthel-score</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>onc-blood-pressure</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>onc-body-temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
     <t>onc-braden-scale-assessment</t>
   </si>
   <si>
     <t>Braden Scale Assessment</t>
   </si>
   <si>
-    <t>null#nursing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LOINC#9017-7</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>LOINC#74012-8</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>LOINC#74013-6</t>
-  </si>
-  <si>
-    <t>LOINC#74014-4</t>
-  </si>
-  <si>
-    <t>LOINC#74015-1</t>
-  </si>
-  <si>
-    <t>LOINC#74016-9</t>
-  </si>
-  <si>
-    <t>LOINC#74017-7</t>
+    <t>ONC Observation Codes#braden-total-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-sensory</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-moisture</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-activity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-mobility</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-nutrition</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-friction</t>
+  </si>
+  <si>
+    <t>onc-glasgow-coma-scale</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
   </si>
   <si>
     <t>onc-goal-evaluation</t>
@@ -101,7 +167,85 @@
     <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
   </si>
   <si>
-    <t>Quantityĵ, CodeableConceptĵ</t>
+    <t>onc-heart-rate</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>onc-inspired-oxygen</t>
+  </si>
+  <si>
+    <t>Inspired Oxygen</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
+    <t>onc-mmse</t>
+  </si>
+  <si>
+    <t>Mini Mental State Examination (MMSE)</t>
+  </si>
+  <si>
+    <t>LOINC#72106-8</t>
+  </si>
+  <si>
+    <t>onc-monk-skintone-observation</t>
+  </si>
+  <si>
+    <t>Monk Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mst-score</t>
+  </si>
+  <si>
+    <t>onc-morse-fall-scale</t>
+  </si>
+  <si>
+    <t>Morse Fall Scale</t>
+  </si>
+  <si>
+    <t>LOINC#73830-2</t>
+  </si>
+  <si>
+    <t>onc-must-score</t>
+  </si>
+  <si>
+    <t>MUST Score (Malnutrition Universal Screening Tool)</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-bmi-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-weight-loss-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-acute-disease-score</t>
+  </si>
+  <si>
+    <t>onc-news2-score</t>
+  </si>
+  <si>
+    <t>NEWS2 Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#news2-score</t>
+  </si>
+  <si>
+    <t>onc-news2-subscore</t>
+  </si>
+  <si>
+    <t>NEWS2 Sub-Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#news2-subscore</t>
   </si>
   <si>
     <t>onc-nursing-assessment</t>
@@ -113,16 +257,79 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
+    <t>onc-oxygen-saturation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>LOINC#59408-5</t>
+  </si>
+  <si>
+    <t>onc-pain-assessment</t>
+  </si>
+  <si>
+    <t>Pain Assessment (NRS 0-10)</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/pain-assessment-code-vs (required)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>onc-qsofa</t>
+  </si>
+  <si>
+    <t>qSOFA (Quick SOFA)</t>
+  </si>
+  <si>
+    <t>LOINC#96790-1</t>
+  </si>
+  <si>
+    <t>onc-respiration-rate</t>
+  </si>
+  <si>
+    <t>Respiration Rate</t>
+  </si>
+  <si>
+    <t>LOINC#9279-1</t>
+  </si>
+  <si>
     <t>onc-skintone-observation</t>
   </si>
   <si>
     <t>Skin Tone Observation</t>
   </si>
   <si>
-    <t>LOINC#66472-2</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
+    <t>LOINC#66555-4</t>
+  </si>
+  <si>
+    <t>onc-waterlow-score</t>
+  </si>
+  <si>
+    <t>Waterlow Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#waterlow-score</t>
+  </si>
+  <si>
+    <t>onc-wound-assessment</t>
+  </si>
+  <si>
+    <t>Wound Assessment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#399912005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#410668003</t>
+  </si>
+  <si>
+    <t>SNOMED CT#401239006</t>
+  </si>
+  <si>
+    <t>SNOMED CT#425094009</t>
   </si>
 </sst>
 </file>
@@ -256,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -334,28 +541,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -369,28 +576,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -407,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -416,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -425,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -442,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
@@ -451,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -460,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -474,28 +681,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -509,28 +716,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -544,28 +751,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -579,28 +786,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -614,28 +821,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -644,6 +851,1056 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="138">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>ACVPU Consciousness Level</t>
   </si>
   <si>
-    <t>null#survey</t>
+    <t>Observation Category Codes#survey</t>
   </si>
   <si>
     <t/>
@@ -92,99 +92,102 @@
     <t>LOINC#85354-9</t>
   </si>
   <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>onc-body-temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
+    <t>onc-braden-scale-assessment</t>
+  </si>
+  <si>
+    <t>Braden Scale Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-total-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-sensory</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-moisture</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-activity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-mobility</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-nutrition</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-friction</t>
+  </si>
+  <si>
+    <t>onc-glasgow-coma-scale</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
+  </si>
+  <si>
+    <t>onc-goal-evaluation</t>
+  </si>
+  <si>
+    <t>Goal Evaluation</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
+  </si>
+  <si>
+    <t>onc-heart-rate</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>onc-inspired-oxygen</t>
+  </si>
+  <si>
+    <t>Inspired Oxygen</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>onc-body-temperature</t>
-  </si>
-  <si>
-    <t>Body Temperature</t>
-  </si>
-  <si>
-    <t>LOINC#8310-5</t>
-  </si>
-  <si>
-    <t>onc-braden-scale-assessment</t>
-  </si>
-  <si>
-    <t>Braden Scale Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-total-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-sensory</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-moisture</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-activity</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-mobility</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-nutrition</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-friction</t>
-  </si>
-  <si>
-    <t>onc-glasgow-coma-scale</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale</t>
-  </si>
-  <si>
-    <t>LOINC#9269-2</t>
-  </si>
-  <si>
-    <t>LOINC#9267-6</t>
-  </si>
-  <si>
-    <t>LOINC#9270-0</t>
-  </si>
-  <si>
-    <t>LOINC#9268-4</t>
-  </si>
-  <si>
-    <t>onc-goal-evaluation</t>
-  </si>
-  <si>
-    <t>Goal Evaluation</t>
-  </si>
-  <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
-  </si>
-  <si>
-    <t>onc-heart-rate</t>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-  </si>
-  <si>
-    <t>LOINC#8867-4</t>
-  </si>
-  <si>
-    <t>onc-inspired-oxygen</t>
-  </si>
-  <si>
-    <t>Inspired Oxygen</t>
-  </si>
-  <si>
-    <t>LOINC#3151-8</t>
-  </si>
-  <si>
     <t>onc-mmse</t>
   </si>
   <si>
@@ -330,6 +333,99 @@
   </si>
   <si>
     <t>SNOMED CT#425094009</t>
+  </si>
+  <si>
+    <t>onc-4at-delirium</t>
+  </si>
+  <si>
+    <t>4AT Delirium Assessment</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-alertness</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-amt4</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-attention</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-acute-change</t>
+  </si>
+  <si>
+    <t>onc-clinical-frailty-scale</t>
+  </si>
+  <si>
+    <t>Clinical Frailty Scale (CFS)</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#cfs-score</t>
+  </si>
+  <si>
+    <t>onc-mental-capacity</t>
+  </si>
+  <si>
+    <t>Mental Capacity Assessment</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mca-assessment</t>
+  </si>
+  <si>
+    <t>onc-patient-story</t>
+  </si>
+  <si>
+    <t>Patient Story</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#patient-story</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>onc-reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>onc-relational-observation</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#relational-engagement</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>onc-what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#what-matters</t>
   </si>
 </sst>
 </file>
@@ -463,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1192,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1206,10 +1302,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1218,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1241,10 +1337,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1253,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1276,10 +1372,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1288,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1311,10 +1407,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1323,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1349,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1358,7 +1454,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1384,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1393,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1419,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1428,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1451,10 +1547,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1463,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1486,10 +1582,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1498,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1521,10 +1617,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1536,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>16</v>
@@ -1556,10 +1652,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1568,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1591,10 +1687,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1606,10 +1702,10 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>22</v>
@@ -1626,10 +1722,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1638,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1661,10 +1757,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1673,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1696,10 +1792,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1708,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1731,10 +1827,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1743,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1766,10 +1862,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1778,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1804,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1813,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1839,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1848,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1874,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1883,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1901,6 +1997,391 @@
         <v>14</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="197">
   <si>
     <t>Profile</t>
   </si>
@@ -161,10 +161,13 @@
     <t>onc-goal-evaluation</t>
   </si>
   <si>
-    <t>Goal Evaluation</t>
-  </si>
-  <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
+    <t>ONC Goal Evaluation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#390906007</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
   </si>
   <si>
     <t>onc-heart-rate</t>
@@ -350,9 +353,6 @@
     <t>ONC Observation Codes#4at-alertness</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>ONC Observation Codes#4at-amt4</t>
   </si>
   <si>
@@ -362,6 +362,75 @@
     <t>ONC Observation Codes#4at-acute-change</t>
   </si>
   <si>
+    <t>onc-abbey-pain-scale</t>
+  </si>
+  <si>
+    <t>Abbey Pain Scale</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-vocalization</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-facial-expression</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-body-language</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-behavioral-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-psychological-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-physical-changes</t>
+  </si>
+  <si>
+    <t>onc-abc-chart</t>
+  </si>
+  <si>
+    <t>PBS ABC Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-antecedent</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-behaviour</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-consequence</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-duration</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-intensity</t>
+  </si>
+  <si>
+    <t>onc-bristol-stool-chart</t>
+  </si>
+  <si>
+    <t>Bristol Stool Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bristol-score</t>
+  </si>
+  <si>
     <t>onc-clinical-frailty-scale</t>
   </si>
   <si>
@@ -371,18 +440,60 @@
     <t>ONC Observation Codes#cfs-score</t>
   </si>
   <si>
+    <t>onc-fluid-balance</t>
+  </si>
+  <si>
+    <t>Fluid Balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-input-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-output-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urine-output</t>
+  </si>
+  <si>
     <t>onc-mental-capacity</t>
   </si>
   <si>
     <t>Mental Capacity Assessment</t>
   </si>
   <si>
-    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
-  </si>
-  <si>
     <t>ONC Observation Codes#mca-assessment</t>
   </si>
   <si>
+    <t>onc-oral-health</t>
+  </si>
+  <si>
+    <t>Oral Health Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-health-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-lips</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-tongue</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-gums</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-teeth</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-saliva</t>
+  </si>
+  <si>
     <t>onc-patient-story</t>
   </si>
   <si>
@@ -395,9 +506,6 @@
     <t>ONC Observation Codes#patient-story</t>
   </si>
   <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
     <t>onc-reasonable-adjustment</t>
   </si>
   <si>
@@ -416,7 +524,76 @@
     <t>ONC Observation Codes#relational-engagement</t>
   </si>
   <si>
-    <t>integerĵ</t>
+    <t>onc-seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-type</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-duration</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-recovery</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-trigger</t>
+  </si>
+  <si>
+    <t>onc-sleep-pattern</t>
+  </si>
+  <si>
+    <t>Sleep Pattern</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-quality</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-hours</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-disturbances</t>
+  </si>
+  <si>
+    <t>onc-urinalysis</t>
+  </si>
+  <si>
+    <t>Urinalysis</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urinalysis-panel</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-leukocytes</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-nitrites</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-blood</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-protein</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-glucose</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ketones</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ph</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-sg</t>
   </si>
   <si>
     <t>onc-what-matters</t>
@@ -559,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1203,22 +1380,22 @@
         <v>49</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1232,10 +1409,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1244,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1267,10 +1444,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1279,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1288,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1302,10 +1479,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1314,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1337,10 +1514,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1349,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1372,10 +1549,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1384,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1407,10 +1584,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1419,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1445,7 +1622,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1454,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1480,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1489,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1515,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1524,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1547,10 +1724,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1559,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1582,10 +1759,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1594,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1617,10 +1794,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1632,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>16</v>
@@ -1652,10 +1829,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1664,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1687,10 +1864,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1702,10 +1879,10 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>22</v>
@@ -1722,10 +1899,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1734,7 +1911,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1757,10 +1934,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1769,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1792,10 +1969,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1804,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1827,10 +2004,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1839,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1862,10 +2039,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1874,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1900,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1909,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1935,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1944,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1970,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1979,7 +2156,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -2002,19 +2179,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -2040,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2049,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2058,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2075,7 +2252,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2093,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2110,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2128,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2145,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2163,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2183,13 +2360,13 @@
         <v>117</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2198,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2212,28 +2389,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2247,28 +2424,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2282,28 +2459,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2317,28 +2494,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2352,36 +2529,1506 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s" s="2">
+      <c r="B60" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s" s="2">
+      <c r="C60" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s" s="2">
+      <c r="H60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>14</v>
       </c>
     </row>
